--- a/IE_models/Randlestown_West_Deck_Bridge.xlsx
+++ b/IE_models/Randlestown_West_Deck_Bridge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/IEmodelV2/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C4B252-7C6D-0144-9E2B-4FAC94E8CDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BDB4FE-D1CF-A54A-A40E-81342B13D38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="2" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -1237,7 +1237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2128,7 +2128,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J37"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2190,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910BBFC3-9F34-C245-85CB-8F57706AA034}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/IE_models/Randlestown_West_Deck_Bridge.xlsx
+++ b/IE_models/Randlestown_West_Deck_Bridge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/IEmodelV2/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BDB4FE-D1CF-A54A-A40E-81342B13D38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480EF95E-A4D2-D349-A925-7AB56F6E1D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="209">
   <si>
     <t>Element ID</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name </t>
   </si>
   <si>
     <t>Joint ID</t>
@@ -1237,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1264,854 +1261,854 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H8" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H9" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H10" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>53</v>
-      </c>
       <c r="F16" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="J18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="H20" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="J24" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="H25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H26" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H27" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2127,9 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076CE62-05A5-B445-85CA-61E02B12840C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2139,7 +2134,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2150,35 +2145,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="8">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2190,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910BBFC3-9F34-C245-85CB-8F57706AA034}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2209,38 +2204,38 @@
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="5"/>
       <c r="L1" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="30"/>
       <c r="W1" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X1" s="10">
         <v>0</v>
@@ -2249,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -2257,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2">
         <v>1.325</v>
@@ -2269,17 +2264,17 @@
         <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
       <c r="O2" s="33"/>
       <c r="W2" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X2" s="12">
         <v>0.7</v>
@@ -2289,7 +2284,7 @@
         <v>1.9005000000000005</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -2297,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2">
         <v>0.7</v>
@@ -2309,17 +2304,17 @@
         <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L3" s="31"/>
       <c r="M3" s="32"/>
       <c r="N3" s="32"/>
       <c r="O3" s="33"/>
       <c r="W3" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X3" s="12">
         <v>1.4</v>
@@ -2329,7 +2324,7 @@
         <v>2.4404999999999992</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2337,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="2">
         <v>0.7</v>
@@ -2350,17 +2345,17 @@
         <v>84.64</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L4" s="34"/>
       <c r="M4" s="35"/>
       <c r="N4" s="35"/>
       <c r="O4" s="36"/>
       <c r="W4" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X4" s="12">
         <f>24.518/2+X3</f>
@@ -2371,7 +2366,7 @@
         <v>4.9335000000000004</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,7 +2374,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2">
         <v>0.7</v>
@@ -2392,19 +2387,19 @@
         <v>86.215000000000003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="21"/>
       <c r="W5" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X5" s="12">
         <f>24.518+X3</f>
@@ -2415,7 +2410,7 @@
         <v>6.1244999999999994</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -2423,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2">
         <v>1.4</v>
@@ -2436,17 +2431,17 @@
         <v>85.465000000000003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="24"/>
       <c r="W6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X6" s="12">
         <f>54.542/2</f>
@@ -2457,7 +2452,7 @@
         <v>7.9664999999999999</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -2465,7 +2460,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2">
         <v>1.4</v>
@@ -2478,17 +2473,17 @@
         <v>85.465000000000003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="24"/>
       <c r="W7" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X7" s="12">
         <f>X5+1.5</f>
@@ -2499,7 +2494,7 @@
         <v>9.8085000000000004</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -2507,7 +2502,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="2">
         <v>1.4</v>
@@ -2520,17 +2515,17 @@
         <v>85.465000000000003</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="24"/>
       <c r="W8" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X8" s="12">
         <f>X5+3</f>
@@ -2541,7 +2536,7 @@
         <v>10.999499999999999</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2549,7 +2544,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="2">
         <v>1.4</v>
@@ -2562,17 +2557,17 @@
         <v>85.465000000000003</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="27"/>
       <c r="W9" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X9" s="12">
         <f>27.161/2+X8</f>
@@ -2583,7 +2578,7 @@
         <v>13.4925</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -2591,7 +2586,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2">
         <v>1.4</v>
@@ -2604,13 +2599,13 @@
         <v>85.465000000000003</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X10" s="12">
         <f>27.161/2+X9</f>
@@ -2621,7 +2616,7 @@
         <v>14.032499999999999</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2629,7 +2624,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="2">
         <v>13.659000000000001</v>
@@ -2642,13 +2637,13 @@
         <v>86.464500000000001</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X11" s="12">
         <f>X10+0.7</f>
@@ -2659,7 +2654,7 @@
         <v>15.933</v>
       </c>
       <c r="Z11" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2667,7 +2662,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="2">
         <v>13.659000000000001</v>
@@ -2680,13 +2675,13 @@
         <v>86.464500000000001</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W12" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X12" s="14">
         <f>X11+0.7</f>
@@ -2698,7 +2693,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2">
         <v>13.659000000000001</v>
@@ -2711,10 +2706,10 @@
         <v>86.464500000000001</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -2722,7 +2717,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2">
         <v>13.659000000000001</v>
@@ -2735,10 +2730,10 @@
         <v>86.464500000000001</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -2746,7 +2741,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2">
         <v>13.659000000000001</v>
@@ -2759,10 +2754,10 @@
         <v>86.464500000000001</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -2770,7 +2765,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2">
         <v>25.917999999999999</v>
@@ -2783,10 +2778,10 @@
         <v>85.963999999999999</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2794,7 +2789,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2">
         <v>25.917999999999999</v>
@@ -2807,10 +2802,10 @@
         <v>85.963999999999999</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2818,7 +2813,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="2">
         <v>25.917999999999999</v>
@@ -2831,10 +2826,10 @@
         <v>85.963999999999999</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2842,7 +2837,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" s="2">
         <v>25.917999999999999</v>
@@ -2855,10 +2850,10 @@
         <v>85.963999999999999</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2866,7 +2861,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2">
         <v>25.917999999999999</v>
@@ -2879,10 +2874,10 @@
         <v>85.963999999999999</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2890,7 +2885,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2">
         <v>27.417999999999999</v>
@@ -2902,10 +2897,10 @@
         <v>76.447999999999993</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2913,7 +2908,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2">
         <v>27.417999999999999</v>
@@ -2925,10 +2920,10 @@
         <v>77.647999999999996</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2936,7 +2931,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" s="2">
         <v>27.417999999999999</v>
@@ -2948,10 +2943,10 @@
         <v>77.647999999999996</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2959,7 +2954,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" s="2">
         <v>27.417999999999999</v>
@@ -2971,10 +2966,10 @@
         <v>77.647999999999996</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2982,7 +2977,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25" s="2">
         <v>27.417999999999999</v>
@@ -2994,10 +2989,10 @@
         <v>77.647999999999996</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3005,7 +3000,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C26" s="2">
         <v>27.417999999999999</v>
@@ -3018,10 +3013,10 @@
         <v>84.563999999999993</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3029,7 +3024,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="2">
         <v>27.417999999999999</v>
@@ -3042,10 +3037,10 @@
         <v>84.563999999999993</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3053,7 +3048,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="2">
         <v>27.417999999999999</v>
@@ -3066,10 +3061,10 @@
         <v>84.563999999999993</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3077,7 +3072,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="2">
         <v>27.417999999999999</v>
@@ -3090,10 +3085,10 @@
         <v>84.563999999999993</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3101,7 +3096,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="2">
         <v>27.417999999999999</v>
@@ -3114,10 +3109,10 @@
         <v>85.138999999999996</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3125,7 +3120,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C31" s="2">
         <v>27.417999999999999</v>
@@ -3138,10 +3133,10 @@
         <v>86.713999999999999</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3149,7 +3144,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2">
         <v>28.917999999999999</v>
@@ -3162,10 +3157,10 @@
         <v>85.963999999999999</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -3173,7 +3168,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C33" s="2">
         <v>28.917999999999999</v>
@@ -3186,10 +3181,10 @@
         <v>85.963999999999999</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3197,7 +3192,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C34" s="2">
         <v>28.917999999999999</v>
@@ -3210,10 +3205,10 @@
         <v>85.963999999999999</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3221,7 +3216,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C35" s="2">
         <v>28.917999999999999</v>
@@ -3234,10 +3229,10 @@
         <v>85.963999999999999</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3245,7 +3240,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="2">
         <v>28.917999999999999</v>
@@ -3258,10 +3253,10 @@
         <v>85.963999999999999</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3269,7 +3264,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C37" s="2">
         <v>42.4985</v>
@@ -3282,10 +3277,10 @@
         <v>86.674499999999995</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3293,7 +3288,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C38" s="2">
         <v>42.4985</v>
@@ -3306,10 +3301,10 @@
         <v>86.674499999999995</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3317,7 +3312,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C39" s="2">
         <v>42.4985</v>
@@ -3330,10 +3325,10 @@
         <v>86.674499999999995</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3341,7 +3336,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C40" s="2">
         <v>42.4985</v>
@@ -3354,10 +3349,10 @@
         <v>86.674499999999995</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3365,7 +3360,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="2">
         <v>42.4985</v>
@@ -3378,10 +3373,10 @@
         <v>86.674499999999995</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3389,7 +3384,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C42" s="2">
         <v>56.079000000000001</v>
@@ -3402,10 +3397,10 @@
         <v>86.043000000000006</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3413,7 +3408,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43" s="2">
         <v>56.079000000000001</v>
@@ -3426,10 +3421,10 @@
         <v>86.043000000000006</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3437,7 +3432,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" s="2">
         <v>56.079000000000001</v>
@@ -3450,10 +3445,10 @@
         <v>86.043000000000006</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3461,7 +3456,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C45" s="2">
         <v>56.079000000000001</v>
@@ -3474,10 +3469,10 @@
         <v>86.043000000000006</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3485,7 +3480,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C46" s="2">
         <v>56.079000000000001</v>
@@ -3498,10 +3493,10 @@
         <v>86.043000000000006</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3509,7 +3504,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C47" s="2">
         <f>C54-2.65/2</f>
@@ -3522,10 +3517,10 @@
         <v>81.819000000000003</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3533,7 +3528,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C48" s="2">
         <v>56.779000000000003</v>
@@ -3545,10 +3540,10 @@
         <v>82.819000000000003</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3556,7 +3551,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C49" s="2">
         <v>56.779000000000003</v>
@@ -3569,10 +3564,10 @@
         <v>85.218000000000004</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3580,7 +3575,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C50" s="2">
         <v>56.779000000000003</v>
@@ -3593,10 +3588,10 @@
         <v>86.793000000000006</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -3604,7 +3599,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C51" s="2">
         <v>27.271000000000001</v>
@@ -3616,10 +3611,10 @@
         <v>86.704000000000008</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3627,7 +3622,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C52" s="2">
         <v>27.271000000000001</v>
@@ -3639,10 +3634,10 @@
         <v>86.704000000000008</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -3650,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3663,10 +3658,10 @@
         <v>86.314999999999998</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -3674,7 +3669,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C54" s="2">
         <v>57.478999999999999</v>
@@ -3687,10 +3682,10 @@
         <v>86.893000000000001</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/IE_models/Randlestown_West_Deck_Bridge.xlsx
+++ b/IE_models/Randlestown_West_Deck_Bridge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/IEmodelV2/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480EF95E-A4D2-D349-A925-7AB56F6E1D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4957CD66-E3BC-2B42-B8D2-FFE4F151F07A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="1" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="205">
   <si>
     <t>Element ID</t>
   </si>
@@ -289,16 +289,7 @@
     <t>K, L</t>
   </si>
   <si>
-    <t>Expansion Joint</t>
-  </si>
-  <si>
     <t>Expansion</t>
-  </si>
-  <si>
-    <t>Road (North)</t>
-  </si>
-  <si>
-    <t>Road (South)</t>
   </si>
   <si>
     <t>West Parapet</t>
@@ -674,12 +665,6 @@
     <t>X, Z</t>
   </si>
   <si>
-    <t>Z, 3</t>
-  </si>
-  <si>
-    <t>Z, 2</t>
-  </si>
-  <si>
     <t>The coordinates have been calculated using a default grid as tabulated in columns X and Y of this table (scroll right) There is no skew. Z coordinates are based off given levels. left to right is north to south</t>
   </si>
   <si>
@@ -694,6 +679,9 @@
   </si>
   <si>
     <t>Foundation Wall (S)</t>
+  </si>
+  <si>
+    <t>Z, 1</t>
   </si>
 </sst>
 </file>
@@ -824,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -842,9 +830,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1234,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1308,10 +1293,10 @@
         <v>22</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>57</v>
@@ -1319,10 +1304,10 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>21</v>
@@ -1334,19 +1319,19 @@
         <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="15" t="s">
         <v>119</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1354,7 +1339,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>21</v>
@@ -1372,10 +1357,10 @@
         <v>22</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>57</v>
@@ -1383,10 +1368,10 @@
     </row>
     <row r="5" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>21</v>
@@ -1398,16 +1383,16 @@
         <v>52</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>58</v>
@@ -1436,10 +1421,10 @@
         <v>22</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>57</v>
@@ -1450,7 +1435,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>21</v>
@@ -1468,13 +1453,13 @@
         <v>49</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>116</v>
+        <v>126</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1499,20 +1484,20 @@
       <c r="G8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="I8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>21</v>
@@ -1529,20 +1514,20 @@
       <c r="G9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="I9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>21</v>
@@ -1559,20 +1544,20 @@
       <c r="G10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="18"/>
+      <c r="I10" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>21</v>
@@ -1590,10 +1575,10 @@
         <v>22</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>58</v>
@@ -1604,7 +1589,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>21</v>
@@ -1622,10 +1607,10 @@
         <v>22</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>60</v>
@@ -1654,13 +1639,13 @@
         <v>42</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1685,14 +1670,14 @@
       <c r="G14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>145</v>
+      <c r="H14" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1717,46 +1702,46 @@
       <c r="G15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>145</v>
+      <c r="H15" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>117</v>
+      <c r="H16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1781,14 +1766,14 @@
       <c r="G17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>145</v>
+      <c r="H17" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="85" x14ac:dyDescent="0.2">
@@ -1814,10 +1799,10 @@
         <v>22</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>59</v>
@@ -1846,13 +1831,13 @@
         <v>42</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1877,14 +1862,14 @@
       <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>146</v>
+      <c r="H20" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1909,46 +1894,46 @@
       <c r="G21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>146</v>
+      <c r="H21" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>117</v>
+      <c r="H22" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1973,14 +1958,14 @@
       <c r="G23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>146</v>
+      <c r="H23" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -2006,10 +1991,10 @@
         <v>22</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>60</v>
@@ -2038,13 +2023,13 @@
         <v>66</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2070,10 +2055,10 @@
         <v>22</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>67</v>
@@ -2102,10 +2087,10 @@
         <v>22</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>67</v>
@@ -2122,9 +2107,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076CE62-05A5-B445-85CA-61E02B12840C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2154,28 +2141,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="8">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="8">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2185,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910BBFC3-9F34-C245-85CB-8F57706AA034}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2228,23 +2193,23 @@
         <v>9</v>
       </c>
       <c r="I1" s="5"/>
-      <c r="L1" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="W1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X1" s="10">
+      <c r="L1" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="W1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="9">
         <v>0</v>
       </c>
-      <c r="Y1" s="9">
+      <c r="Y1" s="8">
         <v>0</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>88</v>
+      <c r="Z1" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -2269,22 +2234,22 @@
       <c r="I2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="W2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" s="12">
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="W2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="11">
         <v>0.7</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="10">
         <f>Y4-3.033</f>
         <v>1.9005000000000005</v>
       </c>
-      <c r="Z2" s="12" t="s">
-        <v>92</v>
+      <c r="Z2" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -2307,24 +2272,24 @@
         <v>71</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="W3" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="X3" s="12">
+        <v>154</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="W3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="X3" s="11">
         <v>1.4</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="10">
         <f>Y5-3.684</f>
         <v>2.4404999999999992</v>
       </c>
-      <c r="Z3" s="12" t="s">
-        <v>91</v>
+      <c r="Z3" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2332,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2">
         <v>0.7</v>
@@ -2348,25 +2313,25 @@
         <v>71</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="36"/>
-      <c r="W4" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="X4" s="12">
+        <v>156</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="35"/>
+      <c r="W4" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="X4" s="11">
         <f>24.518/2+X3</f>
         <v>13.659000000000001</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="10">
         <f>Y6-3.033</f>
         <v>4.9335000000000004</v>
       </c>
-      <c r="Z4" s="12" t="s">
-        <v>90</v>
+      <c r="Z4" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2374,7 +2339,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2">
         <v>0.7</v>
@@ -2392,25 +2357,25 @@
       <c r="I5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
-      <c r="W5" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="X5" s="12">
+      <c r="L5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20"/>
+      <c r="W5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="X5" s="11">
         <f>24.518+X3</f>
         <v>25.917999999999999</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="10">
         <f>Y6-1.842</f>
         <v>6.1244999999999994</v>
       </c>
-      <c r="Z5" s="12" t="s">
-        <v>89</v>
+      <c r="Z5" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -2436,23 +2401,23 @@
       <c r="I6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
-      <c r="W6" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="X6" s="12">
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="23"/>
+      <c r="W6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X6" s="11">
         <f>54.542/2</f>
         <v>27.271000000000001</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="10">
         <f>16.433/2-0.25</f>
         <v>7.9664999999999999</v>
       </c>
-      <c r="Z6" s="12" t="s">
-        <v>93</v>
+      <c r="Z6" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -2460,7 +2425,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2">
         <v>1.4</v>
@@ -2478,23 +2443,23 @@
       <c r="I7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
-      <c r="W7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="X7" s="12">
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23"/>
+      <c r="W7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" s="11">
         <f>X5+1.5</f>
         <v>27.417999999999999</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="10">
         <f>Y6+1.842</f>
         <v>9.8085000000000004</v>
       </c>
-      <c r="Z7" s="12" t="s">
-        <v>95</v>
+      <c r="Z7" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -2502,7 +2467,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2">
         <v>1.4</v>
@@ -2520,23 +2485,23 @@
       <c r="I8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="W8" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="X8" s="12">
+      <c r="L8" s="21"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="23"/>
+      <c r="W8" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X8" s="11">
         <f>X5+3</f>
         <v>28.917999999999999</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="10">
         <f>Y6+3.033</f>
         <v>10.999499999999999</v>
       </c>
-      <c r="Z8" s="12" t="s">
-        <v>94</v>
+      <c r="Z8" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2544,7 +2509,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2">
         <v>1.4</v>
@@ -2562,23 +2527,23 @@
       <c r="I9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="27"/>
-      <c r="W9" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="X9" s="12">
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+      <c r="W9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" s="11">
         <f>27.161/2+X8</f>
         <v>42.4985</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="10">
         <f>Y7+3.684</f>
         <v>13.4925</v>
       </c>
-      <c r="Z9" s="12" t="s">
-        <v>97</v>
+      <c r="Z9" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -2586,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2">
         <v>1.4</v>
@@ -2604,19 +2569,19 @@
       <c r="I10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="W10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="X10" s="12">
+      <c r="W10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" s="11">
         <f>27.161/2+X9</f>
         <v>56.079000000000001</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="10">
         <f>Y8+3.033</f>
         <v>14.032499999999999</v>
       </c>
-      <c r="Z10" s="12" t="s">
-        <v>96</v>
+      <c r="Z10" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2624,7 +2589,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C11" s="2">
         <v>13.659000000000001</v>
@@ -2642,19 +2607,19 @@
       <c r="I11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="X11" s="12">
+      <c r="W11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X11" s="11">
         <f>X10+0.7</f>
         <v>56.779000000000003</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Y11" s="12">
         <f>Y6*2</f>
         <v>15.933</v>
       </c>
-      <c r="Z11" s="14" t="s">
-        <v>98</v>
+      <c r="Z11" s="13" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2662,7 +2627,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2">
         <v>13.659000000000001</v>
@@ -2680,10 +2645,10 @@
       <c r="I12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="X12" s="14">
+      <c r="W12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" s="13">
         <f>X11+0.7</f>
         <v>57.479000000000006</v>
       </c>
@@ -2693,7 +2658,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2">
         <v>13.659000000000001</v>
@@ -2717,7 +2682,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2">
         <v>13.659000000000001</v>
@@ -2741,7 +2706,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2">
         <v>13.659000000000001</v>
@@ -2765,7 +2730,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2">
         <v>25.917999999999999</v>
@@ -2813,7 +2778,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2">
         <v>25.917999999999999</v>
@@ -2837,7 +2802,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2">
         <v>25.917999999999999</v>
@@ -2861,7 +2826,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C20" s="2">
         <v>25.917999999999999</v>
@@ -2885,7 +2850,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2">
         <v>27.417999999999999</v>
@@ -2931,7 +2896,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C23" s="2">
         <v>27.417999999999999</v>
@@ -2954,7 +2919,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2">
         <v>27.417999999999999</v>
@@ -2977,7 +2942,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2">
         <v>27.417999999999999</v>
@@ -3000,7 +2965,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C26" s="2">
         <v>27.417999999999999</v>
@@ -3048,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C28" s="2">
         <v>27.417999999999999</v>
@@ -3072,7 +3037,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C29" s="2">
         <v>27.417999999999999</v>
@@ -3096,7 +3061,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C30" s="2">
         <v>27.417999999999999</v>
@@ -3120,7 +3085,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C31" s="2">
         <v>27.417999999999999</v>
@@ -3168,7 +3133,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C33" s="2">
         <v>28.917999999999999</v>
@@ -3192,7 +3157,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C34" s="2">
         <v>28.917999999999999</v>
@@ -3216,7 +3181,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C35" s="2">
         <v>28.917999999999999</v>
@@ -3240,7 +3205,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C36" s="2">
         <v>28.917999999999999</v>
@@ -3264,7 +3229,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C37" s="2">
         <v>42.4985</v>
@@ -3288,7 +3253,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C38" s="2">
         <v>42.4985</v>
@@ -3312,7 +3277,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C39" s="2">
         <v>42.4985</v>
@@ -3336,7 +3301,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C40" s="2">
         <v>42.4985</v>
@@ -3360,7 +3325,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C41" s="2">
         <v>42.4985</v>
@@ -3384,7 +3349,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C42" s="2">
         <v>56.079000000000001</v>
@@ -3408,7 +3373,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C43" s="2">
         <v>56.079000000000001</v>
@@ -3432,7 +3397,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C44" s="2">
         <v>56.079000000000001</v>
@@ -3456,7 +3421,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C45" s="2">
         <v>56.079000000000001</v>
@@ -3480,7 +3445,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C46" s="2">
         <v>56.079000000000001</v>
@@ -3504,7 +3469,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C47" s="2">
         <f>C54-2.65/2</f>
@@ -3528,7 +3493,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C48" s="2">
         <v>56.779000000000003</v>
@@ -3543,7 +3508,7 @@
         <v>70</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3551,7 +3516,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C49" s="2">
         <v>56.779000000000003</v>
@@ -3567,7 +3532,7 @@
         <v>71</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3575,7 +3540,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C50" s="2">
         <v>56.779000000000003</v>
@@ -3599,7 +3564,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C51" s="2">
         <v>27.271000000000001</v>
@@ -3607,14 +3572,14 @@
       <c r="D51" s="2">
         <v>0</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="16">
         <v>86.704000000000008</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3622,7 +3587,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C52" s="2">
         <v>27.271000000000001</v>
@@ -3630,14 +3595,14 @@
       <c r="D52" s="2">
         <v>15.933</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="16">
         <v>86.704000000000008</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -3658,10 +3623,10 @@
         <v>86.314999999999998</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -3669,7 +3634,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C54" s="2">
         <v>57.478999999999999</v>
@@ -3682,10 +3647,10 @@
         <v>86.893000000000001</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/IE_models/Randlestown_West_Deck_Bridge.xlsx
+++ b/IE_models/Randlestown_West_Deck_Bridge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/IEmodelV2/IE_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/agnetwork/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4957CD66-E3BC-2B42-B8D2-FFE4F151F07A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741D3A9F-0DE5-E343-BF15-198BACDA2A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="1" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -688,7 +688,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1219,11 +1219,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="6"/>
@@ -1238,7 +1238,7 @@
     <col min="11" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="51">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="51">
       <c r="A3" s="6" t="s">
         <v>115</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="51">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="49" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>203</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="51">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="51">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="51">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="51">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="51">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="51">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="68">
       <c r="A12" s="6" t="s">
         <v>53</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="51">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="51">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="51">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="51">
       <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="51">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="85">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="51">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="51">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="51">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" s="15" customFormat="1" ht="51">
       <c r="A22" s="15" t="s">
         <v>29</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="51">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="68">
       <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="68">
       <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="51">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="51">
       <c r="A27" s="6" t="s">
         <v>63</v>
       </c>
@@ -2109,17 +2109,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076CE62-05A5-B445-85CA-61E02B12840C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2154,7 @@
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="11" style="2"/>
     <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
@@ -2167,7 +2167,7 @@
     <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="17" thickBot="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="17" thickBot="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="17" thickBot="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="17" thickBot="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>57.479000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="2">
         <v>53</v>
       </c>

--- a/IE_models/Randlestown_West_Deck_Bridge.xlsx
+++ b/IE_models/Randlestown_West_Deck_Bridge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/agnetwork/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741D3A9F-0DE5-E343-BF15-198BACDA2A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C75429-392A-C840-BEB0-6BD2DDF5A53B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14780" windowHeight="9600" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -1219,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>

--- a/IE_models/Randlestown_West_Deck_Bridge.xlsx
+++ b/IE_models/Randlestown_West_Deck_Bridge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/agnetwork/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C75429-392A-C840-BEB0-6BD2DDF5A53B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF0EDCA-DB3F-234A-955A-53BC187C0594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14780" windowHeight="9600" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
+    <workbookView xWindow="0" yWindow="8180" windowWidth="14320" windowHeight="8480" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -1219,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>

--- a/IE_models/Randlestown_West_Deck_Bridge.xlsx
+++ b/IE_models/Randlestown_West_Deck_Bridge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/agnetwork/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF0EDCA-DB3F-234A-955A-53BC187C0594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528C203F-1895-C148-B7EF-BC1019216F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8180" windowWidth="14320" windowHeight="8480" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="207">
   <si>
     <t>Element ID</t>
   </si>
@@ -681,7 +681,13 @@
     <t>Foundation Wall (S)</t>
   </si>
   <si>
-    <t>Z, 1</t>
+    <t>Z, 2</t>
+  </si>
+  <si>
+    <t>Z, 3</t>
+  </si>
+  <si>
+    <t>Expansion joint</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -2107,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076CE62-05A5-B445-85CA-61E02B12840C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2138,6 +2144,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3634,7 +3662,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C54" s="2">
         <v>57.478999999999999</v>

--- a/IE_models/Randlestown_West_Deck_Bridge.xlsx
+++ b/IE_models/Randlestown_West_Deck_Bridge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/agnetwork/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528C203F-1895-C148-B7EF-BC1019216F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7991704D-9D4E-0A4F-88D9-2C9BFA99D8FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -1225,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -2115,7 +2115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076CE62-05A5-B445-85CA-61E02B12840C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
